--- a/couchdb/example.xlsx
+++ b/couchdb/example.xlsx
@@ -5,15 +5,17 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JaeyeonLee/MyGit/SOMAReport/Couchdb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JaeyeonLee/MyGit/SOMA/SOMAReport/couchdb/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10460" yWindow="3960" windowWidth="15180" windowHeight="10400" tabRatio="500" activeTab="1"/>
+    <workbookView minimized="1" xWindow="9740" yWindow="3560" windowWidth="15180" windowHeight="10400" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mentor" sheetId="3" r:id="rId1"/>
     <sheet name="Mentee" sheetId="1" r:id="rId2"/>
+    <sheet name="Project_1-1" sheetId="4" r:id="rId3"/>
+    <sheet name="Project_1-2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="138">
   <si>
     <t>SW Maestro</t>
   </si>
@@ -186,36 +188,6 @@
     <t>윤뿅뿅</t>
   </si>
   <si>
-    <t>mentee0@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee1@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee2@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee3@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee4@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee5@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee6@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee7@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee8@gmail.com</t>
-  </si>
-  <si>
-    <t>mentee9@gmail.com</t>
-  </si>
-  <si>
     <t>010-000-0000</t>
   </si>
   <si>
@@ -244,13 +216,238 @@
   </si>
   <si>
     <t>010-000-0009</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>단계</t>
+  </si>
+  <si>
+    <t>차수</t>
+  </si>
+  <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Mentee</t>
+  </si>
+  <si>
+    <t>김갹갹의프로젝트 1-1</t>
+  </si>
+  <si>
+    <t>강갹갹의프로젝트 1-1</t>
+  </si>
+  <si>
+    <t>민갹갹의프로젝트 1-1</t>
+  </si>
+  <si>
+    <t>이갹갹의프로젝트 1-1</t>
+  </si>
+  <si>
+    <t>최갹갹의프로젝트 1-1</t>
+  </si>
+  <si>
+    <t>박갹갹의프로젝트 1-1</t>
+  </si>
+  <si>
+    <t>장갹갹의프로젝트 1-1</t>
+  </si>
+  <si>
+    <t>조갹갹의프로젝트 1-1</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>embedded</t>
+  </si>
+  <si>
+    <t>mentee10@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee09@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee08@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee00@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee01@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee02@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee03@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee04@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee05@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee06@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee07@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee11@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee12@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee13@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee14@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee15@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee16@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee17@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee18@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee19@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee20@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee21@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee22@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee23@gmail.com</t>
+  </si>
+  <si>
+    <t>mentee24@gmail.com</t>
+  </si>
+  <si>
+    <t>조뿅뿅</t>
+  </si>
+  <si>
+    <t>양뿅뿅</t>
+  </si>
+  <si>
+    <t>연뿅뿅</t>
+  </si>
+  <si>
+    <t>성뿅뿅</t>
+  </si>
+  <si>
+    <t>마뿅뿅</t>
+  </si>
+  <si>
+    <t>010-000-0010</t>
+  </si>
+  <si>
+    <t>010-000-0011</t>
+  </si>
+  <si>
+    <t>010-000-0012</t>
+  </si>
+  <si>
+    <t>010-000-0013</t>
+  </si>
+  <si>
+    <t>010-000-0014</t>
+  </si>
+  <si>
+    <t>010-000-0015</t>
+  </si>
+  <si>
+    <t>010-000-0016</t>
+  </si>
+  <si>
+    <t>010-000-0017</t>
+  </si>
+  <si>
+    <t>010-000-0018</t>
+  </si>
+  <si>
+    <t>010-000-0019</t>
+  </si>
+  <si>
+    <t>010-000-0020</t>
+  </si>
+  <si>
+    <t>010-000-0021</t>
+  </si>
+  <si>
+    <t>010-000-0022</t>
+  </si>
+  <si>
+    <t>010-000-0023</t>
+  </si>
+  <si>
+    <t>010-000-0024</t>
+  </si>
+  <si>
+    <t>고뿅뿅</t>
+  </si>
+  <si>
+    <t>남뿅뿅</t>
+  </si>
+  <si>
+    <t>신뿅뿅</t>
+  </si>
+  <si>
+    <t>배뿅뿅</t>
+  </si>
+  <si>
+    <t>장뿅뿅</t>
+  </si>
+  <si>
+    <t>한뿅뿅</t>
+  </si>
+  <si>
+    <t>육뿅뿅</t>
+  </si>
+  <si>
+    <t>손뿅뿅</t>
+  </si>
+  <si>
+    <t>류뿅뿅</t>
+  </si>
+  <si>
+    <t>홍뿅뿅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mobile</t>
+  </si>
+  <si>
+    <t>web</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -279,8 +476,38 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +531,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF649D7E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -314,18 +547,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
@@ -608,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -621,9 +862,10 @@
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="37" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -631,23 +873,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -663,8 +905,11 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -681,7 +926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -698,7 +943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -715,7 +960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -732,7 +977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -749,7 +994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -766,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -783,7 +1028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -800,7 +1045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -841,16 +1086,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
@@ -898,10 +1143,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>41</v>
@@ -912,10 +1157,10 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -926,10 +1171,10 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
       </c>
       <c r="D10" t="s">
         <v>41</v>
@@ -940,10 +1185,10 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -954,10 +1199,10 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
         <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
@@ -968,10 +1213,10 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -982,10 +1227,10 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
         <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -996,10 +1241,10 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -1010,10 +1255,10 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1024,12 +1269,222 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
       <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1037,4 +1492,469 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/couchdb/example.xlsx
+++ b/couchdb/example.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="9740" yWindow="3560" windowWidth="15180" windowHeight="10400" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="9740" yWindow="3560" windowWidth="15180" windowHeight="10400" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Mentor" sheetId="3" r:id="rId1"/>
-    <sheet name="Mentee" sheetId="1" r:id="rId2"/>
-    <sheet name="Project_1-1" sheetId="4" r:id="rId3"/>
+    <sheet name="Project" sheetId="4" r:id="rId1"/>
+    <sheet name="Mentor" sheetId="3" r:id="rId2"/>
+    <sheet name="Mentee" sheetId="1" r:id="rId3"/>
     <sheet name="Project_1-2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="140">
   <si>
     <t>SW Maestro</t>
   </si>
@@ -441,6 +441,12 @@
   </si>
   <si>
     <t>web</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Regular</t>
   </si>
 </sst>
 </file>
@@ -849,10 +855,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="37" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D32"/>
   <sheetViews>
@@ -1494,245 +1760,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" ht="37" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,17 +1773,17 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="37" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1758,7 +1791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -1766,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -1774,183 +1807,210 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>137</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>51</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>74</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>136</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>135</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>75</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>137</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>107</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>128</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>76</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>108</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>137</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>134</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>131</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>52</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>130</v>
       </c>
     </row>

--- a/couchdb/example.xlsx
+++ b/couchdb/example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="3560" windowWidth="15180" windowHeight="10400" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="9740" yWindow="3560" windowWidth="15180" windowHeight="10400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="4" r:id="rId1"/>
@@ -559,7 +559,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -567,8 +567,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -855,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,12 +1099,6 @@
       <c r="G16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="7"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,13 +1756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="37" x14ac:dyDescent="0.45">

--- a/couchdb/example.xlsx
+++ b/couchdb/example.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="3560" windowWidth="15180" windowHeight="10400" tabRatio="500"/>
+    <workbookView xWindow="9740" yWindow="3560" windowWidth="15180" windowHeight="10400" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Project" sheetId="4" r:id="rId1"/>
-    <sheet name="Mentor" sheetId="3" r:id="rId2"/>
-    <sheet name="Mentee" sheetId="1" r:id="rId3"/>
+    <sheet name="Mentor" sheetId="3" r:id="rId1"/>
+    <sheet name="Mentee" sheetId="1" r:id="rId2"/>
+    <sheet name="Project_1-1" sheetId="4" r:id="rId3"/>
     <sheet name="Project_1-2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="139">
   <si>
     <t>SW Maestro</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>Mentor</t>
-  </si>
-  <si>
-    <t>Title</t>
   </si>
   <si>
     <t>Project Title</t>
@@ -853,270 +850,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" ht="37" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
@@ -1342,11 +1085,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -1401,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -1415,7 +1158,7 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -1429,7 +1172,7 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
@@ -1443,7 +1186,7 @@
         <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -1457,7 +1200,7 @@
         <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
@@ -1471,7 +1214,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>58</v>
@@ -1485,7 +1228,7 @@
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>59</v>
@@ -1499,7 +1242,7 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -1513,7 +1256,7 @@
         <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>61</v>
@@ -1527,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
@@ -1538,13 +1281,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
         <v>41</v>
@@ -1552,13 +1295,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
         <v>41</v>
@@ -1566,13 +1309,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>41</v>
@@ -1580,13 +1323,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
         <v>41</v>
@@ -1594,13 +1337,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
@@ -1608,13 +1351,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
@@ -1622,13 +1365,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
@@ -1636,13 +1379,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
         <v>41</v>
@@ -1650,13 +1393,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
         <v>41</v>
@@ -1664,13 +1407,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
@@ -1678,13 +1421,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
@@ -1692,13 +1435,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s">
         <v>41</v>
@@ -1706,13 +1449,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
         <v>41</v>
@@ -1720,13 +1463,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
         <v>41</v>
@@ -1734,13 +1477,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
         <v>41</v>
@@ -1749,6 +1492,260 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="37" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1756,13 +1753,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1802,7 +1799,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>66</v>
@@ -1811,10 +1808,10 @@
         <v>67</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1822,16 +1819,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -1840,21 +1837,21 @@
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -1863,148 +1860,148 @@
         <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
         <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
         <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" t="s">
         <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
